--- a/public/report/MolassesCustomerReport.xlsx
+++ b/public/report/MolassesCustomerReport.xlsx
@@ -81,13 +81,16 @@
     <t xml:space="preserve">บริษัท มงคลสมัย จำกัด</t>
   </si>
   <si>
-    <t xml:space="preserve">รายงานข้อมูลการรับกากน้ำตาล ประจำวันที่ 23 พ.ย. 2566</t>
+    <t xml:space="preserve">รายงานข้อมูลการรับกากน้ำตาล ประจำวันที่ 31 ม.ค. 2567 ถึง 8 ก.พ. 2567</t>
   </si>
   <si>
     <t xml:space="preserve">Customer Test 1</t>
   </si>
   <si>
     <t xml:space="preserve">ทดสอบขนส่งจำกัด 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test excel 1</t>
   </si>
   <si>
     <t xml:space="preserve">รวม</t>
@@ -972,47 +975,41 @@
       <c r="B7" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" t="s" s="8">
+        <v>17</v>
+      </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <v>50500</v>
       </c>
       <c r="E7" s="10">
-        <v>0</v>
+        <v>31180</v>
       </c>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>19320</v>
       </c>
       <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>60</v>
-      </c>
-      <c r="I7" s="14">
-        <v>29</v>
-      </c>
-      <c r="J7" s="15">
-        <v>4</v>
-      </c>
-      <c r="K7" s="16">
-        <v>10</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8">
       <c r="B8" t="s" s="17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="18">
         <v>17</v>
       </c>
       <c r="D8" s="19">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="20">
-        <v>100</v>
+        <v>5630</v>
       </c>
       <c r="F8" s="21">
-        <v>900</v>
+        <v>-630</v>
       </c>
       <c r="G8" s="22">
         <v>1</v>
@@ -1024,32 +1021,24 @@
     </row>
     <row r="9">
       <c r="C9" t="s" s="27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="28">
-        <v>1000</v>
+        <v>55500</v>
       </c>
       <c r="E9" s="29">
-        <v>100</v>
+        <v>36810</v>
       </c>
       <c r="F9" s="30">
-        <v>900</v>
+        <v>18690</v>
       </c>
       <c r="G9" s="31">
-        <v>2</v>
-      </c>
-      <c r="H9" s="32">
-        <v>60</v>
-      </c>
-      <c r="I9" s="33">
-        <v>29</v>
-      </c>
-      <c r="J9" s="34">
         <v>4</v>
       </c>
-      <c r="K9" s="35">
-        <v>10</v>
-      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
